--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_308__Reeval_Sobol_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_308__Reeval_Sobol_Modell_1.3.xlsx
@@ -6121,7 +6121,7 @@
                   <c:v>82.74751281738281</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>63.55050277709961</c:v>
+                  <c:v>63.55049896240234</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>76.69643402099609</c:v>
@@ -6130,7 +6130,7 @@
                   <c:v>86.86624145507812</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.11771392822266</c:v>
+                  <c:v>45.11771011352539</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>72.26760101318359</c:v>
@@ -6148,46 +6148,46 @@
                   <c:v>80.39585876464844</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73.28421783447266</c:v>
+                  <c:v>73.28422546386719</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>70.63434600830078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>97.93502044677734</c:v>
+                  <c:v>97.93502807617188</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>35.64556121826172</c:v>
+                  <c:v>35.64555740356445</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>96.48577117919922</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75.37442779541016</c:v>
+                  <c:v>75.37442016601562</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>77.2071533203125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45.86171340942383</c:v>
+                  <c:v>45.8617057800293</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>89.21478271484375</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>80.18161773681641</c:v>
+                  <c:v>80.18162536621094</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>52.57052230834961</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>27.62811660766602</c:v>
+                  <c:v>27.62812042236328</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>59.87928009033203</c:v>
+                  <c:v>59.8792839050293</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37.62545013427734</c:v>
+                  <c:v>37.62544631958008</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>80.26011657714844</c:v>
@@ -6196,13 +6196,13 @@
                   <c:v>60.60048294067383</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>74.27168273925781</c:v>
+                  <c:v>74.27169036865234</c:v>
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>69.03340911865234</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>76.21514892578125</c:v>
+                  <c:v>76.21515655517578</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>80.15644073486328</c:v>
@@ -6235,7 +6235,7 @@
                   <c:v>74.01705932617188</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>44.19100189208984</c:v>
+                  <c:v>44.19099807739258</c:v>
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>72.70372772216797</c:v>
@@ -6244,10 +6244,10 @@
                   <c:v>87.73796844482422</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>82.59561157226562</c:v>
+                  <c:v>82.59559631347656</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>56.50946044921875</c:v>
+                  <c:v>56.50945663452148</c:v>
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>74.82301330566406</c:v>
@@ -6256,19 +6256,19 @@
                   <c:v>83.18275451660156</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>108.5507736206055</c:v>
+                  <c:v>108.55078125</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>50.41403579711914</c:v>
+                  <c:v>50.41404342651367</c:v>
                 </c:pt>
                 <c:pt idx="48">
                   <c:v>78.31132507324219</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>21.26577949523926</c:v>
+                  <c:v>21.26578140258789</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>63.42502593994141</c:v>
+                  <c:v>63.42502212524414</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>91.34992980957031</c:v>
@@ -6277,19 +6277,19 @@
                   <c:v>89.41464996337891</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>81.81194305419922</c:v>
+                  <c:v>81.81195068359375</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>80.46012878417969</c:v>
+                  <c:v>80.46012115478516</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>67.88946533203125</c:v>
+                  <c:v>67.88948059082031</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>55.70408248901367</c:v>
+                  <c:v>55.70407485961914</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>84.30687713623047</c:v>
+                  <c:v>84.30689239501953</c:v>
                 </c:pt>
                 <c:pt idx="58">
                   <c:v>78.38517761230469</c:v>
@@ -6298,7 +6298,7 @@
                   <c:v>60.61425018310547</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>93.69992065429688</c:v>
+                  <c:v>93.69992828369141</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>81.64687347412109</c:v>
@@ -6313,7 +6313,7 @@
                   <c:v>42.10412216186523</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>81.21076202392578</c:v>
+                  <c:v>81.21076965332031</c:v>
                 </c:pt>
                 <c:pt idx="66">
                   <c:v>88.41172027587891</c:v>
@@ -6322,7 +6322,7 @@
                   <c:v>85.10363006591797</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>76.50776672363281</c:v>
+                  <c:v>76.50775909423828</c:v>
                 </c:pt>
                 <c:pt idx="69">
                   <c:v>85.77610015869141</c:v>
@@ -6346,13 +6346,13 @@
                   <c:v>94.57470703125</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>33.46402359008789</c:v>
+                  <c:v>33.46401977539062</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>46.56854629516602</c:v>
+                  <c:v>46.56854248046875</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>41.61214447021484</c:v>
+                  <c:v>41.61214828491211</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>53.1119270324707</c:v>
@@ -6361,7 +6361,7 @@
                   <c:v>69.88565063476562</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>77.26304626464844</c:v>
+                  <c:v>77.26303863525391</c:v>
                 </c:pt>
                 <c:pt idx="82">
                   <c:v>82.00654602050781</c:v>
@@ -6373,7 +6373,7 @@
                   <c:v>24.28975677490234</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>26.89843368530273</c:v>
+                  <c:v>26.8984375</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>99.23398590087891</c:v>
@@ -6385,7 +6385,7 @@
                   <c:v>92.85309600830078</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>55.19303131103516</c:v>
+                  <c:v>55.19302749633789</c:v>
                 </c:pt>
                 <c:pt idx="90">
                   <c:v>79.02652740478516</c:v>
@@ -6397,10 +6397,10 @@
                   <c:v>83.57098388671875</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>46.56684112548828</c:v>
+                  <c:v>46.56683349609375</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>79.02288818359375</c:v>
+                  <c:v>79.02288055419922</c:v>
                 </c:pt>
                 <c:pt idx="95">
                   <c:v>77.73600769042969</c:v>
@@ -6409,7 +6409,7 @@
                   <c:v>76.75517272949219</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>33.0318489074707</c:v>
+                  <c:v>33.03185272216797</c:v>
                 </c:pt>
                 <c:pt idx="98">
                   <c:v>80.82083892822266</c:v>
@@ -6421,7 +6421,7 @@
                   <c:v>79.00107574462891</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>70.08029937744141</c:v>
+                  <c:v>70.08030700683594</c:v>
                 </c:pt>
                 <c:pt idx="102">
                   <c:v>75.42334747314453</c:v>
@@ -7151,7 +7151,7 @@
         <v>63.5721</v>
       </c>
       <c r="F3">
-        <v>63.55050277709961</v>
+        <v>63.55049896240234</v>
       </c>
       <c r="G3">
         <v>109</v>
@@ -7247,7 +7247,7 @@
         <v>48.7815</v>
       </c>
       <c r="F6">
-        <v>45.11771392822266</v>
+        <v>45.11771011352539</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -7391,7 +7391,7 @@
         <v>73.68899999999999</v>
       </c>
       <c r="F12">
-        <v>73.28421783447266</v>
+        <v>73.28422546386719</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -7431,7 +7431,7 @@
         <v>84.10420000000001</v>
       </c>
       <c r="F14">
-        <v>97.93502044677734</v>
+        <v>97.93502807617188</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -7451,7 +7451,7 @@
         <v>38.9871</v>
       </c>
       <c r="F15">
-        <v>35.64556121826172</v>
+        <v>35.64555740356445</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -7491,7 +7491,7 @@
         <v>77.1523</v>
       </c>
       <c r="F17">
-        <v>75.37442779541016</v>
+        <v>75.37442016601562</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7531,7 +7531,7 @@
         <v>51.4731</v>
       </c>
       <c r="F19">
-        <v>45.86171340942383</v>
+        <v>45.8617057800293</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -7571,7 +7571,7 @@
         <v>76.9473</v>
       </c>
       <c r="F21">
-        <v>80.18161773681641</v>
+        <v>80.18162536621094</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -7611,7 +7611,7 @@
         <v>29.2626</v>
       </c>
       <c r="F23">
-        <v>27.62811660766602</v>
+        <v>27.62812042236328</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -7631,7 +7631,7 @@
         <v>51.853</v>
       </c>
       <c r="F24">
-        <v>59.87928009033203</v>
+        <v>59.8792839050293</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7651,7 +7651,7 @@
         <v>43.7599</v>
       </c>
       <c r="F25">
-        <v>37.62545013427734</v>
+        <v>37.62544631958008</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7711,7 +7711,7 @@
         <v>62.4651</v>
       </c>
       <c r="F28">
-        <v>74.27168273925781</v>
+        <v>74.27169036865234</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7751,7 +7751,7 @@
         <v>78.3235</v>
       </c>
       <c r="F30">
-        <v>76.21514892578125</v>
+        <v>76.21515655517578</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -7971,7 +7971,7 @@
         <v>38.9776</v>
       </c>
       <c r="F41">
-        <v>44.19100189208984</v>
+        <v>44.19099807739258</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -8031,7 +8031,7 @@
         <v>85.48820000000001</v>
       </c>
       <c r="F44">
-        <v>82.59561157226562</v>
+        <v>82.59559631347656</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -8051,7 +8051,7 @@
         <v>39.188</v>
       </c>
       <c r="F45">
-        <v>56.50946044921875</v>
+        <v>56.50945663452148</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -8111,7 +8111,7 @@
         <v>93.9173</v>
       </c>
       <c r="F48">
-        <v>108.5507736206055</v>
+        <v>108.55078125</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8131,7 +8131,7 @@
         <v>54.0966</v>
       </c>
       <c r="F49">
-        <v>50.41403579711914</v>
+        <v>50.41404342651367</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -8171,7 +8171,7 @@
         <v>23.918</v>
       </c>
       <c r="F51">
-        <v>21.26577949523926</v>
+        <v>21.26578140258789</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -8191,7 +8191,7 @@
         <v>61.0616</v>
       </c>
       <c r="F52">
-        <v>63.42502593994141</v>
+        <v>63.42502212524414</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -8251,7 +8251,7 @@
         <v>89.90649999999999</v>
       </c>
       <c r="F55">
-        <v>81.81194305419922</v>
+        <v>81.81195068359375</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -8271,7 +8271,7 @@
         <v>80.2208</v>
       </c>
       <c r="F56">
-        <v>80.46012878417969</v>
+        <v>80.46012115478516</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -8291,7 +8291,7 @@
         <v>71.977</v>
       </c>
       <c r="F57">
-        <v>67.88946533203125</v>
+        <v>67.88948059082031</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -8311,7 +8311,7 @@
         <v>51.7094</v>
       </c>
       <c r="F58">
-        <v>55.70408248901367</v>
+        <v>55.70407485961914</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -8331,7 +8331,7 @@
         <v>74.66889999999999</v>
       </c>
       <c r="F59">
-        <v>84.30687713623047</v>
+        <v>84.30689239501953</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>90.9457</v>
       </c>
       <c r="F62">
-        <v>93.69992065429688</v>
+        <v>93.69992828369141</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8491,7 +8491,7 @@
         <v>80.6164</v>
       </c>
       <c r="F67">
-        <v>81.21076202392578</v>
+        <v>81.21076965332031</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -8551,7 +8551,7 @@
         <v>79.62130000000001</v>
       </c>
       <c r="F70">
-        <v>76.50776672363281</v>
+        <v>76.50775909423828</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -8711,7 +8711,7 @@
         <v>21.8916</v>
       </c>
       <c r="F78">
-        <v>33.46402359008789</v>
+        <v>33.46401977539062</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -8731,7 +8731,7 @@
         <v>50.5684</v>
       </c>
       <c r="F79">
-        <v>46.56854629516602</v>
+        <v>46.56854248046875</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -8751,7 +8751,7 @@
         <v>45.8515</v>
       </c>
       <c r="F80">
-        <v>41.61214447021484</v>
+        <v>41.61214828491211</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8811,7 +8811,7 @@
         <v>74.2764</v>
       </c>
       <c r="F83">
-        <v>77.26304626464844</v>
+        <v>77.26303863525391</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -8891,7 +8891,7 @@
         <v>28.121</v>
       </c>
       <c r="F87">
-        <v>26.89843368530273</v>
+        <v>26.8984375</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -8971,7 +8971,7 @@
         <v>57.9143</v>
       </c>
       <c r="F91">
-        <v>55.19303131103516</v>
+        <v>55.19302749633789</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -9051,7 +9051,7 @@
         <v>43.9895</v>
       </c>
       <c r="F95">
-        <v>46.56684112548828</v>
+        <v>46.56683349609375</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -9071,7 +9071,7 @@
         <v>65.3784</v>
       </c>
       <c r="F96">
-        <v>79.02288818359375</v>
+        <v>79.02288055419922</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -9131,7 +9131,7 @@
         <v>21.5603</v>
       </c>
       <c r="F99">
-        <v>33.0318489074707</v>
+        <v>33.03185272216797</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -9211,7 +9211,7 @@
         <v>62.6855</v>
       </c>
       <c r="F103">
-        <v>70.08029937744141</v>
+        <v>70.08030700683594</v>
       </c>
     </row>
     <row r="104" spans="1:6">
